--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\Documents\python_soba\sharing_streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\sobaya_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40604ACE-C76F-4385-A638-FF79C691A558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AF6BA-63F7-49CC-B136-9AE6DD99DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="284">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -956,13 +956,383 @@
   </si>
   <si>
     <t>東京都</t>
+  </si>
+  <si>
+    <t>画像URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/008.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/009.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/010.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/011.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/012.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/013.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/014.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/015.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/016.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/017.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/018.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/019.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/020.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/021.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/022.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/023.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/024.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/025.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/026.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/027.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/028.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/029.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/030.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/031.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/032.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/033.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/034.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/035.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/036.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/037.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/038.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/039.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/040.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/041.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/042.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/043.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/044.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/045.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/046.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/047.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/048.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/052.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/053.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/054.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/055.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/056.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/057.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/058.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/059.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/060.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/061.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/062.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/063.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/064.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/065.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/066.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/067.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/068.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/069.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/070.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/071.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/072.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/073.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/074.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/075.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/076.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/077.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/078.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/079.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/080.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/081.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/082.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/083.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/084.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/085.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/086.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/087.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/088.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/089.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/090.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/094.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/095.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/096.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/097.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/098.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/099.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/100.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/101.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/102.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/103.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/104.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/105.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/106.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/107.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/108.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/109.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/110.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/111.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/112.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/113.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/114.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/115.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/116.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/117.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/118.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/119.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/120.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/121.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/122.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/123.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/124.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/125.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/126.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/127.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,6 +1343,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -996,17 +1375,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1319,11 +1705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1333,7 +1719,7 @@
     <col min="4" max="5" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1735,11 @@
       <c r="E1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>35.4055725546784</v>
       </c>
@@ -1367,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>35.5823047937685</v>
       </c>
@@ -1384,7 +1773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>36.863210621181999</v>
       </c>
@@ -1401,7 +1790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>35.174540754848202</v>
       </c>
@@ -1418,7 +1807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>35.192814778926497</v>
       </c>
@@ -1435,7 +1824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>36.204799081784003</v>
       </c>
@@ -1451,8 +1840,11 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>37.108273687509502</v>
       </c>
@@ -1468,8 +1860,11 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>35.292734763315899</v>
       </c>
@@ -1485,8 +1880,11 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>35.6646500782036</v>
       </c>
@@ -1502,8 +1900,11 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>35.661855751719102</v>
       </c>
@@ -1519,8 +1920,11 @@
       <c r="E11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>35.672586122707003</v>
       </c>
@@ -1536,8 +1940,11 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>35.738310685004301</v>
       </c>
@@ -1553,8 +1960,11 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>35.244404262613799</v>
       </c>
@@ -1570,8 +1980,11 @@
       <c r="E14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>35.130108220681798</v>
       </c>
@@ -1587,8 +2000,11 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>35.195508621418597</v>
       </c>
@@ -1604,8 +2020,11 @@
       <c r="E16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>35.884298723438903</v>
       </c>
@@ -1621,8 +2040,11 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>37.099107956692798</v>
       </c>
@@ -1638,8 +2060,11 @@
       <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>35.921918048264999</v>
       </c>
@@ -1655,8 +2080,11 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>34.707151657952203</v>
       </c>
@@ -1672,8 +2100,11 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>26.248371311738101</v>
       </c>
@@ -1689,8 +2120,11 @@
       <c r="E21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>35.668362713331803</v>
       </c>
@@ -1706,8 +2140,11 @@
       <c r="E22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>35.667968688505198</v>
       </c>
@@ -1723,8 +2160,11 @@
       <c r="E23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>33.556807469375897</v>
       </c>
@@ -1740,8 +2180,11 @@
       <c r="E24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>33.581372559702302</v>
       </c>
@@ -1757,8 +2200,11 @@
       <c r="E25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>35.964760988907699</v>
       </c>
@@ -1774,8 +2220,11 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>36.186424255320503</v>
       </c>
@@ -1791,8 +2240,11 @@
       <c r="E27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>36.402199951460297</v>
       </c>
@@ -1808,8 +2260,11 @@
       <c r="E28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>35.6502632340612</v>
       </c>
@@ -1825,8 +2280,11 @@
       <c r="E29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>35.669727284706497</v>
       </c>
@@ -1842,8 +2300,11 @@
       <c r="E30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>35.4406937537319</v>
       </c>
@@ -1859,8 +2320,11 @@
       <c r="E31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>35.667917350841797</v>
       </c>
@@ -1876,8 +2340,11 @@
       <c r="E32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>35.695525170821199</v>
       </c>
@@ -1893,8 +2360,11 @@
       <c r="E33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>35.434480688112899</v>
       </c>
@@ -1910,8 +2380,11 @@
       <c r="E34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>35.651477912713602</v>
       </c>
@@ -1927,8 +2400,11 @@
       <c r="E35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35.704853946039002</v>
       </c>
@@ -1944,8 +2420,11 @@
       <c r="E36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>35.613348812250003</v>
       </c>
@@ -1961,8 +2440,11 @@
       <c r="E37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>26.207299632045</v>
       </c>
@@ -1978,8 +2460,11 @@
       <c r="E38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>35.589849848300098</v>
       </c>
@@ -1995,8 +2480,11 @@
       <c r="E39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>33.477065862806498</v>
       </c>
@@ -2012,8 +2500,11 @@
       <c r="E40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>33.260901654810901</v>
       </c>
@@ -2029,8 +2520,11 @@
       <c r="E41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>33.4926387390421</v>
       </c>
@@ -2046,8 +2540,11 @@
       <c r="E42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>35.696977375918998</v>
       </c>
@@ -2063,8 +2560,11 @@
       <c r="E43" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>35.4472545866386</v>
       </c>
@@ -2080,8 +2580,11 @@
       <c r="E44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>35.501667880240902</v>
       </c>
@@ -2097,8 +2600,11 @@
       <c r="E45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>36.7473245102451</v>
       </c>
@@ -2114,8 +2620,11 @@
       <c r="E46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>35.397741687758099</v>
       </c>
@@ -2131,8 +2640,11 @@
       <c r="E47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>35.664148646218898</v>
       </c>
@@ -2148,8 +2660,11 @@
       <c r="E48" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>35.644700505268197</v>
       </c>
@@ -2165,8 +2680,11 @@
       <c r="E49" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>35.637638315103402</v>
       </c>
@@ -2182,8 +2700,9 @@
       <c r="E50" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>34.684552025034598</v>
       </c>
@@ -2199,8 +2718,11 @@
       <c r="E51" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>35.348373250832097</v>
       </c>
@@ -2216,8 +2738,11 @@
       <c r="E52" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>35.640295107257202</v>
       </c>
@@ -2233,8 +2758,11 @@
       <c r="E53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>35.623646943459299</v>
       </c>
@@ -2250,8 +2778,11 @@
       <c r="E54" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>26.163310693347</v>
       </c>
@@ -2267,8 +2798,11 @@
       <c r="E55" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>35.736554345938501</v>
       </c>
@@ -2284,8 +2818,11 @@
       <c r="E56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>35.722799494995002</v>
       </c>
@@ -2301,8 +2838,11 @@
       <c r="E57" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>38.209177052127501</v>
       </c>
@@ -2318,8 +2858,11 @@
       <c r="E58" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>38.452424912047199</v>
       </c>
@@ -2335,8 +2878,11 @@
       <c r="E59" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>38.177630817757297</v>
       </c>
@@ -2352,8 +2898,11 @@
       <c r="E60" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>38.211534279756897</v>
       </c>
@@ -2369,8 +2918,11 @@
       <c r="E61" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>35.786686492671699</v>
       </c>
@@ -2386,8 +2938,11 @@
       <c r="E62" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>35.681030846448998</v>
       </c>
@@ -2403,8 +2958,11 @@
       <c r="E63" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>33.1169977872459</v>
       </c>
@@ -2420,8 +2978,11 @@
       <c r="E64" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>33.067310511726198</v>
       </c>
@@ -2437,8 +2998,11 @@
       <c r="E65" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>35.8051793056473</v>
       </c>
@@ -2454,8 +3018,11 @@
       <c r="E66" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>36.3447832308957</v>
       </c>
@@ -2471,8 +3038,11 @@
       <c r="E67" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>36.214638315070999</v>
       </c>
@@ -2488,8 +3058,11 @@
       <c r="E68" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>35.720504626859302</v>
       </c>
@@ -2505,8 +3078,11 @@
       <c r="E69" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>35.659362966688199</v>
       </c>
@@ -2522,8 +3098,11 @@
       <c r="E70" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>26.227007666954901</v>
       </c>
@@ -2539,8 +3118,11 @@
       <c r="E71" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>35.666163708524799</v>
       </c>
@@ -2556,8 +3138,11 @@
       <c r="E72" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>33.499050862134098</v>
       </c>
@@ -2573,8 +3158,11 @@
       <c r="E73" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>35.001711671066602</v>
       </c>
@@ -2590,8 +3178,11 @@
       <c r="E74" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>35.001323171817802</v>
       </c>
@@ -2607,8 +3198,11 @@
       <c r="E75" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>35.572251166716804</v>
       </c>
@@ -2624,8 +3218,11 @@
       <c r="E76" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>35.725853707793</v>
       </c>
@@ -2641,8 +3238,11 @@
       <c r="E77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>35.4462898892575</v>
       </c>
@@ -2658,8 +3258,11 @@
       <c r="E78" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>35.700985282944501</v>
       </c>
@@ -2675,8 +3278,11 @@
       <c r="E79" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>35.668599270888201</v>
       </c>
@@ -2692,8 +3298,11 @@
       <c r="E80" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>35.691307161306803</v>
       </c>
@@ -2709,8 +3318,11 @@
       <c r="E81" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>35.340166973258697</v>
       </c>
@@ -2726,8 +3338,11 @@
       <c r="E82" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>34.742787066736703</v>
       </c>
@@ -2743,8 +3358,11 @@
       <c r="E83" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>35.013738730403801</v>
       </c>
@@ -2760,8 +3378,11 @@
       <c r="E84" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>35.031546765155497</v>
       </c>
@@ -2777,8 +3398,11 @@
       <c r="E85" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>26.696686270792799</v>
       </c>
@@ -2794,8 +3418,11 @@
       <c r="E86" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>34.893277580541003</v>
       </c>
@@ -2811,8 +3438,11 @@
       <c r="E87" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>34.8210624125389</v>
       </c>
@@ -2828,8 +3458,11 @@
       <c r="E88" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>35.017423440680403</v>
       </c>
@@ -2845,8 +3478,11 @@
       <c r="E89" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>35.0122067683644</v>
       </c>
@@ -2862,8 +3498,11 @@
       <c r="E90" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>35.460810294653797</v>
       </c>
@@ -2879,8 +3518,11 @@
       <c r="E91" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>35.401685284244103</v>
       </c>
@@ -2896,8 +3538,9 @@
       <c r="E92" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>35.688472373782901</v>
       </c>
@@ -2913,8 +3556,11 @@
       <c r="E93" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>34.676601436123498</v>
       </c>
@@ -2930,8 +3576,11 @@
       <c r="E94" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>34.655777887835796</v>
       </c>
@@ -2947,8 +3596,11 @@
       <c r="E95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>35.710302030071901</v>
       </c>
@@ -2964,8 +3616,11 @@
       <c r="E96" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>35.689605782144703</v>
       </c>
@@ -2981,8 +3636,11 @@
       <c r="E97" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>36.445805720334199</v>
       </c>
@@ -2998,8 +3656,11 @@
       <c r="E98" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>36.316330053086801</v>
       </c>
@@ -3015,8 +3676,11 @@
       <c r="E99" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>35.709872647977903</v>
       </c>
@@ -3032,8 +3696,11 @@
       <c r="E100" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>35.050681091923401</v>
       </c>
@@ -3049,8 +3716,11 @@
       <c r="E101" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>35.698180812721901</v>
       </c>
@@ -3066,8 +3736,11 @@
       <c r="E102" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>35.705827961897398</v>
       </c>
@@ -3083,8 +3756,11 @@
       <c r="E103" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>35.526452344767101</v>
       </c>
@@ -3100,8 +3776,11 @@
       <c r="E104" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F104" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>35.6568459208004</v>
       </c>
@@ -3117,8 +3796,11 @@
       <c r="E105" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F105" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>34.725659256798501</v>
       </c>
@@ -3134,8 +3816,11 @@
       <c r="E106" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>34.742810050573802</v>
       </c>
@@ -3151,8 +3836,11 @@
       <c r="E107" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>34.729442118445</v>
       </c>
@@ -3168,8 +3856,11 @@
       <c r="E108" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F108" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>42.718365526959097</v>
       </c>
@@ -3185,8 +3876,11 @@
       <c r="E109" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F109" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>42.878838732703699</v>
       </c>
@@ -3202,8 +3896,11 @@
       <c r="E110" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>35.613708734777497</v>
       </c>
@@ -3219,8 +3916,11 @@
       <c r="E111" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>35.227082212523896</v>
       </c>
@@ -3236,8 +3936,11 @@
       <c r="E112" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>35.6141329260712</v>
       </c>
@@ -3253,8 +3956,11 @@
       <c r="E113" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F113" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>42.549117182613998</v>
       </c>
@@ -3270,8 +3976,11 @@
       <c r="E114" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F114" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>43.462158993393999</v>
       </c>
@@ -3287,8 +3996,11 @@
       <c r="E115" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F115" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>35.666683596800503</v>
       </c>
@@ -3304,8 +4016,11 @@
       <c r="E116" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F116" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>34.986042184570401</v>
       </c>
@@ -3321,8 +4036,11 @@
       <c r="E117" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F117" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>35.608071666441703</v>
       </c>
@@ -3338,8 +4056,11 @@
       <c r="E118" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F118" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>35.669895241746197</v>
       </c>
@@ -3355,8 +4076,11 @@
       <c r="E119" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F119" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>36.2308110263142</v>
       </c>
@@ -3372,8 +4096,11 @@
       <c r="E120" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F120" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>36.233639361949798</v>
       </c>
@@ -3389,8 +4116,11 @@
       <c r="E121" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F121" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>35.642069682144097</v>
       </c>
@@ -3406,8 +4136,11 @@
       <c r="E122" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F122" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>35.646688061425401</v>
       </c>
@@ -3423,8 +4156,11 @@
       <c r="E123" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F123" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>36.2726142667426</v>
       </c>
@@ -3440,8 +4176,11 @@
       <c r="E124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F124" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>35.451948000000002</v>
       </c>
@@ -3457,8 +4196,11 @@
       <c r="E125" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F125" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>40.602305962971997</v>
       </c>
@@ -3474,8 +4216,11 @@
       <c r="E126" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F126" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>40.826283666850898</v>
       </c>
@@ -3491,8 +4236,11 @@
       <c r="E127" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F127" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>35.697094611648801</v>
       </c>
@@ -3508,10 +4256,135 @@
       <c r="E128" t="s">
         <v>33</v>
       </c>
+      <c r="F128" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{A5CF3622-BF98-4EB2-A5BE-0EC30DED0767}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{B311C224-29D3-4544-91C1-9BE4CD6CB88F}"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{26AB2FE2-FE58-450E-AB55-E32370568DC5}"/>
+    <hyperlink ref="F11" r:id="rId4" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{8443FBBA-B59E-42FD-8076-26F377DC8E46}"/>
+    <hyperlink ref="F13" r:id="rId5" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{D6271CAE-2EC0-4D6A-AEE7-824DC7068F3C}"/>
+    <hyperlink ref="F15" r:id="rId6" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{5C2DF568-D8DF-45F6-A904-951B7329BEBB}"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{F590FDCB-876A-4B45-B0D7-5082CEDCA671}"/>
+    <hyperlink ref="F19" r:id="rId8" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{12C32441-CAB1-426B-87B1-B21EFABCC450}"/>
+    <hyperlink ref="F21" r:id="rId9" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{F87752D4-CB69-414E-ACC1-B2837A177C35}"/>
+    <hyperlink ref="F23" r:id="rId10" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{AC6DD948-6A5E-457A-9063-470239B42E38}"/>
+    <hyperlink ref="F25" r:id="rId11" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{64EA2403-E194-4DE4-8C0B-D21D3D1E2955}"/>
+    <hyperlink ref="F27" r:id="rId12" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{9B2D79CE-2F04-4A0E-8CD6-3A1A5A793590}"/>
+    <hyperlink ref="F29" r:id="rId13" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{CE2CC4EF-5C2A-4D67-BD52-85AC23ADFA76}"/>
+    <hyperlink ref="F31" r:id="rId14" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{0AFC114F-5AFA-4B35-8C5A-5CA80040978C}"/>
+    <hyperlink ref="F33" r:id="rId15" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{F7775FE3-EB9F-4BEA-8C6D-32DC47E1912C}"/>
+    <hyperlink ref="F35" r:id="rId16" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{AE91A635-29A2-4E6D-BD00-AF78AF0DCCBC}"/>
+    <hyperlink ref="F37" r:id="rId17" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{15119BA4-EFA7-411E-AD67-A2469F3420CE}"/>
+    <hyperlink ref="F39" r:id="rId18" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{199FFF6B-597F-4606-9305-160E728D1ECD}"/>
+    <hyperlink ref="F41" r:id="rId19" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{D8C5935A-DEE4-4E3E-9429-51AAE5498926}"/>
+    <hyperlink ref="F43" r:id="rId20" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{2385D3D7-E723-464C-A675-E7F45DB7D4D9}"/>
+    <hyperlink ref="F45" r:id="rId21" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{0BDBAA62-F877-4940-BF98-75DB582D5B42}"/>
+    <hyperlink ref="F47" r:id="rId22" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/006.jpg" xr:uid="{2896874D-025F-4728-973B-978E44C8C51D}"/>
+    <hyperlink ref="F49" r:id="rId23" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{C34597D8-ED53-4AD3-9358-AC93E28BD63E}"/>
+    <hyperlink ref="F10" r:id="rId24" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{A8306E8D-60A6-4D68-9BD5-89A27C20D914}"/>
+    <hyperlink ref="F12" r:id="rId25" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{021F9B05-0CE3-4B6C-BAE2-7753D3340651}"/>
+    <hyperlink ref="F14" r:id="rId26" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{B771FF3F-70F7-421E-A5EA-E66E07D62457}"/>
+    <hyperlink ref="F16" r:id="rId27" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{BD8F04F7-C37A-41B5-A822-95EBE0A5DF4A}"/>
+    <hyperlink ref="F18" r:id="rId28" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{5934264C-0344-4081-AE12-41FD2FD5D4F3}"/>
+    <hyperlink ref="F20" r:id="rId29" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{7D3725C1-DE26-4029-B89F-31EF369243E0}"/>
+    <hyperlink ref="F22" r:id="rId30" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{8A0A6664-4F58-4150-96BD-D140595B50BC}"/>
+    <hyperlink ref="F24" r:id="rId31" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{5DD6543A-29DA-46D6-BAD1-610E385A2F13}"/>
+    <hyperlink ref="F26" r:id="rId32" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{81D2FBF6-95E1-43EF-A6A0-359EC7F78F67}"/>
+    <hyperlink ref="F28" r:id="rId33" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{21BD8FD2-6E42-45B5-8F3A-26F30A669984}"/>
+    <hyperlink ref="F30" r:id="rId34" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{FBDC4E3D-3303-4ED7-9818-94BE01194FF6}"/>
+    <hyperlink ref="F32" r:id="rId35" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{36C15D34-4374-47F9-A600-35E6DCE5BDB3}"/>
+    <hyperlink ref="F34" r:id="rId36" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{DBE11EFD-A3E8-42EE-980D-3359C66510F5}"/>
+    <hyperlink ref="F36" r:id="rId37" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{E96764B5-993B-4936-B87E-914C8F1F4678}"/>
+    <hyperlink ref="F38" r:id="rId38" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{16C3687F-F6EF-416E-90FA-2B7A495E1FD4}"/>
+    <hyperlink ref="F40" r:id="rId39" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{9DEFCA81-2176-4114-97F2-15DDE3982DEC}"/>
+    <hyperlink ref="F42" r:id="rId40" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{C01AD084-239B-469E-9153-E99EF627ADAE}"/>
+    <hyperlink ref="F44" r:id="rId41" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{9281C919-B455-4AF0-9DDC-72E5CA988296}"/>
+    <hyperlink ref="F46" r:id="rId42" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{BF011DF2-9C5D-408D-9657-D342E10E0E20}"/>
+    <hyperlink ref="F48" r:id="rId43" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/007.jpg" xr:uid="{EBCF2924-1368-4C72-82F7-2D3AF04FACED}"/>
+    <hyperlink ref="F51" r:id="rId44" xr:uid="{14CCAE1B-5D38-401C-A911-BA2F8F218D01}"/>
+    <hyperlink ref="F52" r:id="rId45" xr:uid="{C55A3B96-6ED8-41C1-B926-3F1247BF1F5E}"/>
+    <hyperlink ref="F53" r:id="rId46" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{7ECCF324-41AC-4F7C-BED3-98E9569B1189}"/>
+    <hyperlink ref="F55" r:id="rId47" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{AA2DD5F7-236D-4AC2-913C-B98ED9D218AF}"/>
+    <hyperlink ref="F57" r:id="rId48" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{73B7E708-D051-4DD5-A27A-CFA3C9DF0E3F}"/>
+    <hyperlink ref="F59" r:id="rId49" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{72D02EC6-1559-4668-94AE-7D9D9982E82B}"/>
+    <hyperlink ref="F61" r:id="rId50" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{11AB6F7D-4E80-42B3-9467-5215B99A7667}"/>
+    <hyperlink ref="F63" r:id="rId51" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{90033810-3F57-4384-9738-F702906CC5D6}"/>
+    <hyperlink ref="F65" r:id="rId52" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{45C10847-CF1F-4331-82C2-5AB7605D7018}"/>
+    <hyperlink ref="F67" r:id="rId53" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{B1E3E7CB-2E89-42C8-8360-50B1DFC28C7D}"/>
+    <hyperlink ref="F69" r:id="rId54" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{24EC2B2F-0707-41D4-96DA-7B9AC17CC36B}"/>
+    <hyperlink ref="F71" r:id="rId55" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{9EC6FDA6-0BD5-453A-96B0-6D2D10D144D1}"/>
+    <hyperlink ref="F73" r:id="rId56" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{8672BA9B-D8D6-4FD1-9CC3-111778A6ACDA}"/>
+    <hyperlink ref="F75" r:id="rId57" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{83695332-C51B-48D9-B92F-2E7F522CD613}"/>
+    <hyperlink ref="F77" r:id="rId58" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{B5911EA8-93D1-4B19-AA45-2E848CCCBA08}"/>
+    <hyperlink ref="F79" r:id="rId59" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{057046A6-4D6A-476B-A521-0E6D32F1DCFD}"/>
+    <hyperlink ref="F81" r:id="rId60" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{EC53E8AC-D1B4-4229-B93D-38D6BC93E029}"/>
+    <hyperlink ref="F83" r:id="rId61" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{FF857B55-6B51-4144-A963-624CDD585C82}"/>
+    <hyperlink ref="F85" r:id="rId62" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{1D3642D2-E1A3-4EF6-86D6-1FD74041E8D7}"/>
+    <hyperlink ref="F87" r:id="rId63" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{A5A882AD-E728-4217-B907-18027D9AB313}"/>
+    <hyperlink ref="F89" r:id="rId64" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/050.jpg" xr:uid="{6CF99919-258C-4F5E-AC6B-263BEAEE84AB}"/>
+    <hyperlink ref="F91" r:id="rId65" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{A5BE937F-6692-453C-A39D-955A5C41251D}"/>
+    <hyperlink ref="F54" r:id="rId66" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{FE6F3CCF-F2FA-4E6D-A7B7-0AEB178C5E99}"/>
+    <hyperlink ref="F56" r:id="rId67" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{03C84F24-6ED2-43D1-B18A-9496A3340B02}"/>
+    <hyperlink ref="F58" r:id="rId68" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{C0333E19-0C4D-43B5-AFF5-AD73761B1AC9}"/>
+    <hyperlink ref="F60" r:id="rId69" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{94E72392-B30D-4F75-AF2A-F68A7D28E9E6}"/>
+    <hyperlink ref="F62" r:id="rId70" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{75891314-9F92-4BCB-A167-F38070DA8DD1}"/>
+    <hyperlink ref="F64" r:id="rId71" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{8336B341-C234-4C77-A339-50B018B91088}"/>
+    <hyperlink ref="F66" r:id="rId72" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{61CD53B7-7DA1-4579-8291-65F32D6B1D2F}"/>
+    <hyperlink ref="F68" r:id="rId73" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{F8859F6B-661E-4256-B76C-A51E50AB8C22}"/>
+    <hyperlink ref="F70" r:id="rId74" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{0613B6F1-EC97-45D8-966B-357AC8593C11}"/>
+    <hyperlink ref="F72" r:id="rId75" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{DB75BF62-E8A9-454B-A376-9EA51F01ACF9}"/>
+    <hyperlink ref="F74" r:id="rId76" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{F4D9E469-408B-4CC9-895E-A454062BDC62}"/>
+    <hyperlink ref="F76" r:id="rId77" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{1F18004F-313A-4355-ADC1-7F6D0BABE0D3}"/>
+    <hyperlink ref="F78" r:id="rId78" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{7B8732F7-DD0A-4FAC-8CC2-DDDB9111CB77}"/>
+    <hyperlink ref="F80" r:id="rId79" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{D25F60C4-8018-495C-A580-AFA47C38B4E1}"/>
+    <hyperlink ref="F82" r:id="rId80" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{78C2F576-DFF2-413B-A2A2-7060EE6C42A7}"/>
+    <hyperlink ref="F84" r:id="rId81" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{6904F490-AF04-4E20-841E-8F483F6D8297}"/>
+    <hyperlink ref="F86" r:id="rId82" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{9B362DFE-017A-47E0-944A-FB474B4B5B9E}"/>
+    <hyperlink ref="F88" r:id="rId83" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{B6A39BC0-19E9-4BA7-9C17-179674B253FB}"/>
+    <hyperlink ref="F90" r:id="rId84" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/051.jpg" xr:uid="{230FB861-705D-4046-9C0F-F81F2DA8C0D4}"/>
+    <hyperlink ref="F93" r:id="rId85" xr:uid="{5D0028CE-E641-4AB6-9F66-03FBA8499273}"/>
+    <hyperlink ref="F94" r:id="rId86" xr:uid="{7DC85F24-5D3A-45F9-ABE9-D65678211492}"/>
+    <hyperlink ref="F95" r:id="rId87" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{60A09029-9CF3-46C7-BAFB-E11DFFEEEDF1}"/>
+    <hyperlink ref="F97" r:id="rId88" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{DD7E4F7A-1883-41C0-87D5-9ADF3A8485C5}"/>
+    <hyperlink ref="F99" r:id="rId89" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{5B303B6A-0F05-4B25-9352-073773E32344}"/>
+    <hyperlink ref="F101" r:id="rId90" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{DE2AD344-A38A-4BDB-B7F0-7E9380C69C45}"/>
+    <hyperlink ref="F103" r:id="rId91" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{6C4F85F0-D6CF-48F0-B269-0B1DD4B6EB1C}"/>
+    <hyperlink ref="F105" r:id="rId92" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{9086B83A-A2F4-4D31-A777-AB5345186673}"/>
+    <hyperlink ref="F107" r:id="rId93" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{37414049-C68B-408A-B8B3-00FAF9652BC0}"/>
+    <hyperlink ref="F109" r:id="rId94" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{B98C2D09-A9EE-41A9-BB7C-93DF28404612}"/>
+    <hyperlink ref="F111" r:id="rId95" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{A3221E5C-59F0-47E4-A573-08E58F396D15}"/>
+    <hyperlink ref="F113" r:id="rId96" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{06A55A8C-947A-40C8-A764-29E195C98E35}"/>
+    <hyperlink ref="F115" r:id="rId97" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{41069CD4-55F9-42B9-B188-DD680EFC877E}"/>
+    <hyperlink ref="F117" r:id="rId98" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{544EB3CF-4F56-4098-832D-2B613258CDCE}"/>
+    <hyperlink ref="F119" r:id="rId99" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{708C3256-3780-4BD8-8253-347BEF61A412}"/>
+    <hyperlink ref="F121" r:id="rId100" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{5524D3EA-95CA-4D3A-8793-9CE621DDEB23}"/>
+    <hyperlink ref="F123" r:id="rId101" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{DAF9F207-2E4E-49D9-85A4-015D3B57034A}"/>
+    <hyperlink ref="F125" r:id="rId102" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{AF8E8CCA-B075-4AEA-845D-41905747172F}"/>
+    <hyperlink ref="F127" r:id="rId103" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/092.jpg" xr:uid="{6653EE08-6810-4380-BA98-F0BEFB13D5D7}"/>
+    <hyperlink ref="F96" r:id="rId104" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{8E5D0C29-21E5-4894-93F9-EB412DCA0129}"/>
+    <hyperlink ref="F98" r:id="rId105" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D3521579-5FE8-4F8F-AE03-66BE8FAD113A}"/>
+    <hyperlink ref="F100" r:id="rId106" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{92375E35-3B77-47A7-8C61-51870F907C92}"/>
+    <hyperlink ref="F102" r:id="rId107" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{8155CBA5-77DF-4D31-9162-BB610BCC6CE8}"/>
+    <hyperlink ref="F104" r:id="rId108" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{092E1FD9-A521-40DA-8593-CD0EA7F1042D}"/>
+    <hyperlink ref="F106" r:id="rId109" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{4AAD724F-03C0-43D6-BEAF-560E098C44D4}"/>
+    <hyperlink ref="F108" r:id="rId110" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D161ECA9-64D6-4313-962A-EDCD802DCBB8}"/>
+    <hyperlink ref="F110" r:id="rId111" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{0030743C-349A-464D-935F-5EEC53887738}"/>
+    <hyperlink ref="F112" r:id="rId112" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{AC4776AF-6372-4F71-BEF3-9704A84B394C}"/>
+    <hyperlink ref="F114" r:id="rId113" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{F2F86E33-BE0C-43FB-8D76-D83E662F49A4}"/>
+    <hyperlink ref="F116" r:id="rId114" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{8FDC69B2-E23E-4DC9-A14F-98777A66B449}"/>
+    <hyperlink ref="F118" r:id="rId115" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{467A37CA-4C67-4E24-AAC9-340EF25B0008}"/>
+    <hyperlink ref="F120" r:id="rId116" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{7198EA42-8E76-4A56-BC37-60821B01D6B4}"/>
+    <hyperlink ref="F122" r:id="rId117" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{30A5339F-19D1-44D1-B83B-B52C01315137}"/>
+    <hyperlink ref="F124" r:id="rId118" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D3D1AA26-384F-4B72-AC37-9E7D16478383}"/>
+    <hyperlink ref="F126" r:id="rId119" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D21B7B09-1BE0-4C16-A6B7-4BC50ECB8286}"/>
+    <hyperlink ref="F128" r:id="rId120" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{672D89C7-C9E7-41CE-93D1-AA0E913E9B9E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
 </worksheet>
 </file>
--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\sobaya_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AF6BA-63F7-49CC-B136-9AE6DD99DC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13B29D-A847-42AF-9D5E-9696A80001BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="286">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -1326,6 +1326,17 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/127.jpg</t>
+  </si>
+  <si>
+    <t>神田まつや</t>
+    <rPh sb="0" eb="2">
+      <t>カンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1409,9 +1420,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1449,7 +1460,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1555,7 +1566,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1697,7 +1708,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1705,11 +1716,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4258,6 +4269,26 @@
       </c>
       <c r="F128" s="1" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>35.6961441877908</v>
+      </c>
+      <c r="B129">
+        <v>139.76890164994199</v>
+      </c>
+      <c r="C129" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4383,8 +4414,9 @@
     <hyperlink ref="F124" r:id="rId118" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D3D1AA26-384F-4B72-AC37-9E7D16478383}"/>
     <hyperlink ref="F126" r:id="rId119" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D21B7B09-1BE0-4C16-A6B7-4BC50ECB8286}"/>
     <hyperlink ref="F128" r:id="rId120" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{672D89C7-C9E7-41CE-93D1-AA0E913E9B9E}"/>
+    <hyperlink ref="F129" r:id="rId121" xr:uid="{9F357ED1-6653-4F51-982E-0905516CE5AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId121"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId122"/>
 </worksheet>
 </file>
--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\sobaya_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13B29D-A847-42AF-9D5E-9696A80001BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F6E51-976C-4AA3-95DC-D3DB21ED4648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="290">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -1337,6 +1337,20 @@
   <si>
     <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>満留賀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一香庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/129.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/130.jpg</t>
   </si>
 </sst>
 </file>
@@ -1716,11 +1730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4289,6 +4303,46 @@
       </c>
       <c r="F129" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>35.536034231625003</v>
+      </c>
+      <c r="B130">
+        <v>139.698862837642</v>
+      </c>
+      <c r="C130" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>35.613618471288802</v>
+      </c>
+      <c r="B131">
+        <v>139.62658555299001</v>
+      </c>
+      <c r="C131" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4415,8 +4469,9 @@
     <hyperlink ref="F126" r:id="rId119" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D21B7B09-1BE0-4C16-A6B7-4BC50ECB8286}"/>
     <hyperlink ref="F128" r:id="rId120" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{672D89C7-C9E7-41CE-93D1-AA0E913E9B9E}"/>
     <hyperlink ref="F129" r:id="rId121" xr:uid="{9F357ED1-6653-4F51-982E-0905516CE5AF}"/>
+    <hyperlink ref="F130:F131" r:id="rId122" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg" xr:uid="{CEEC70F5-2839-4801-859F-77EB3F9D450D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId122"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\sobaya_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F6E51-976C-4AA3-95DC-D3DB21ED4648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EA7FA-5704-477B-97C9-1821207260F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -4469,7 +4469,7 @@
     <hyperlink ref="F126" r:id="rId119" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{D21B7B09-1BE0-4C16-A6B7-4BC50ECB8286}"/>
     <hyperlink ref="F128" r:id="rId120" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{672D89C7-C9E7-41CE-93D1-AA0E913E9B9E}"/>
     <hyperlink ref="F129" r:id="rId121" xr:uid="{9F357ED1-6653-4F51-982E-0905516CE5AF}"/>
-    <hyperlink ref="F130:F131" r:id="rId122" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg" xr:uid="{CEEC70F5-2839-4801-859F-77EB3F9D450D}"/>
+    <hyperlink ref="F130:F131" r:id="rId122" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg" xr:uid="{B0166F73-AB97-49A8-9DAC-C5D19618EF00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>

--- a/sobaya_list.xlsx
+++ b/sobaya_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payof\sobaya_map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9EA7FA-5704-477B-97C9-1821207260F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7D695-C9B2-436C-ADA9-BCEBBE483A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="298">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -1351,6 +1351,56 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/130.jpg</t>
+  </si>
+  <si>
+    <t>首里ほそかわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦&amp;日本酒バル凪</t>
+    <rPh sb="0" eb="2">
+      <t>ソバ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニホンシュ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十割そば山楽</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウワリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/131.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/132.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/133.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOBA FUTATSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/134.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1730,11 +1780,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4343,6 +4393,86 @@
       </c>
       <c r="F131" s="1" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>35.697497693737702</v>
+      </c>
+      <c r="B132">
+        <v>139.76796194629199</v>
+      </c>
+      <c r="C132" t="s">
+        <v>291</v>
+      </c>
+      <c r="D132" t="s">
+        <v>162</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>26.214282359001398</v>
+      </c>
+      <c r="B133">
+        <v>127.690426550307</v>
+      </c>
+      <c r="C133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>26.219687200655201</v>
+      </c>
+      <c r="B134">
+        <v>127.71631729448499</v>
+      </c>
+      <c r="C134" t="s">
+        <v>290</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>35.614312389275298</v>
+      </c>
+      <c r="B135">
+        <v>139.62599968913301</v>
+      </c>
+      <c r="C135" t="s">
+        <v>296</v>
+      </c>
+      <c r="D135" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4470,8 +4600,13 @@
     <hyperlink ref="F128" r:id="rId120" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/093.jpg" xr:uid="{672D89C7-C9E7-41CE-93D1-AA0E913E9B9E}"/>
     <hyperlink ref="F129" r:id="rId121" xr:uid="{9F357ED1-6653-4F51-982E-0905516CE5AF}"/>
     <hyperlink ref="F130:F131" r:id="rId122" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg" xr:uid="{B0166F73-AB97-49A8-9DAC-C5D19618EF00}"/>
+    <hyperlink ref="F132:F134" r:id="rId123" display="https://raw.githubusercontent.com/gindble56/j_soba_map/master/images/128.jpg" xr:uid="{D19F10E5-0A5F-41C4-A548-472BCAF63F1C}"/>
+    <hyperlink ref="F132" r:id="rId124" xr:uid="{A6E480EB-5D2F-4288-B355-BCE2416A51F9}"/>
+    <hyperlink ref="F133" r:id="rId125" xr:uid="{17DF1C65-9031-4B4A-83C9-DD9D24A73A06}"/>
+    <hyperlink ref="F134" r:id="rId126" xr:uid="{665987AB-0793-409F-BE70-7E7806C8D136}"/>
+    <hyperlink ref="F135" r:id="rId127" xr:uid="{7EE38C1A-635E-49D0-98CD-C3C30BD56E0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
 </worksheet>
 </file>